--- a/data/res_compo_fish.xlsx
+++ b/data/res_compo_fish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\01.Analyses\Ker_Arctgazella-prey-poop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F6A74-8A66-4E17-9D2B-E57CCF9751C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA212B-770A-4248-ACA7-A397C6A2F353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
@@ -779,9 +779,6 @@
     <t>Paralepididae</t>
   </si>
   <si>
-    <t>Notolepsis coatsi</t>
-  </si>
-  <si>
     <t>Nototheniidae</t>
   </si>
   <si>
@@ -1635,6 +1632,9 @@
   </si>
   <si>
     <t>2005_GYMNBOL_GB11</t>
+  </si>
+  <si>
+    <t>Notolepis coatsi</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1755,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2036,12 +2036,12 @@
   <dimension ref="A1:W267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="590" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="585" topLeftCell="A127" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147:C156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" customWidth="1"/>
@@ -2124,7 +2124,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -2195,7 +2195,7 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -2266,7 +2266,7 @@
         <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
@@ -2337,7 +2337,7 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C5" t="s">
         <v>116</v>
@@ -2408,7 +2408,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -2479,7 +2479,7 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C7" t="s">
         <v>116</v>
@@ -2550,7 +2550,7 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C8" t="s">
         <v>116</v>
@@ -2621,7 +2621,7 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -2692,7 +2692,7 @@
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -2763,7 +2763,7 @@
         <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
@@ -2834,7 +2834,7 @@
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
@@ -2905,7 +2905,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
@@ -2976,7 +2976,7 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -3047,7 +3047,7 @@
         <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
@@ -3118,7 +3118,7 @@
         <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C16" t="s">
         <v>128</v>
@@ -3136,7 +3136,7 @@
         <v>0.10878506210413755</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I16" s="3">
         <v>4.1395903594636829</v>
@@ -3189,7 +3189,7 @@
         <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
@@ -3207,7 +3207,7 @@
         <v>0.12943682919966235</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I17" s="3">
         <v>3.9534509788157743</v>
@@ -3260,7 +3260,7 @@
         <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C18" t="s">
         <v>128</v>
@@ -3278,7 +3278,7 @@
         <v>0.12444623439387838</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I18" s="3">
         <v>3.1111558598469591</v>
@@ -3331,7 +3331,7 @@
         <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
@@ -3349,7 +3349,7 @@
         <v>0.12296881862099253</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I19" s="3">
         <v>3.6890645586297759</v>
@@ -3402,7 +3402,7 @@
         <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C20" t="s">
         <v>128</v>
@@ -3420,7 +3420,7 @@
         <v>6.7592033796016915E-2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I20" s="3">
         <v>3.2126332729833038</v>
@@ -3473,7 +3473,7 @@
         <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C21" t="s">
         <v>128</v>
@@ -3491,7 +3491,7 @@
         <v>7.3159030942672107E-2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I21" s="3">
         <v>3.1122571360038385</v>
@@ -3544,7 +3544,7 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C22" t="s">
         <v>140</v>
@@ -3562,7 +3562,7 @@
         <v>8.645533141210375E-2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I22" s="3">
         <v>4.6769932756964456</v>
@@ -3615,7 +3615,7 @@
         <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C23" t="s">
         <v>140</v>
@@ -3633,7 +3633,7 @@
         <v>8.0232032544824472E-2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I23" s="3">
         <v>4.1208377278891071</v>
@@ -3686,7 +3686,7 @@
         <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C24" t="s">
         <v>140</v>
@@ -3704,7 +3704,7 @@
         <v>8.8568486096807425E-2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I24" s="3">
         <v>4.8341915550978376</v>
@@ -3757,7 +3757,7 @@
         <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C25" t="s">
         <v>140</v>
@@ -3775,7 +3775,7 @@
         <v>8.8617792611347682E-2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" s="3">
         <v>5.8714082940115855</v>
@@ -3828,7 +3828,7 @@
         <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" t="s">
         <v>140</v>
@@ -3846,7 +3846,7 @@
         <v>8.6186905774136194E-2</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I26" s="3">
         <v>4.0755198268532116</v>
@@ -3899,7 +3899,7 @@
         <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C27" t="s">
         <v>140</v>
@@ -3917,7 +3917,7 @@
         <v>7.6684710127873229E-2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I27" s="3">
         <v>4.5677414293559275</v>
@@ -3970,7 +3970,7 @@
         <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C28" t="s">
         <v>140</v>
@@ -3988,7 +3988,7 @@
         <v>8.9679911699779249E-2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I28" s="3">
         <v>5.1107694733522546</v>
@@ -4041,7 +4041,7 @@
         <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C29" t="s">
         <v>140</v>
@@ -4059,7 +4059,7 @@
         <v>0.10206946338333199</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I29" s="3">
         <v>6.4209513114622609</v>
@@ -4112,7 +4112,7 @@
         <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C30" t="s">
         <v>140</v>
@@ -4130,7 +4130,7 @@
         <v>9.741147073751609E-2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I30" s="3">
         <v>4.995510092531136</v>
@@ -4183,7 +4183,7 @@
         <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C31" t="s">
         <v>140</v>
@@ -4201,7 +4201,7 @@
         <v>8.0247667929447236E-2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I31" s="3">
         <v>3.2730457452442057</v>
@@ -4254,7 +4254,7 @@
         <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C32" t="s">
         <v>151</v>
@@ -4272,7 +4272,7 @@
         <v>0.10217509095131204</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I32" s="3">
         <v>9.5847201795804633</v>
@@ -4325,7 +4325,7 @@
         <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C33" t="s">
         <v>151</v>
@@ -4343,7 +4343,7 @@
         <v>9.9069711248036735E-2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I33" s="3">
         <v>6.0549313358302124</v>
@@ -4396,7 +4396,7 @@
         <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C34" t="s">
         <v>151</v>
@@ -4414,7 +4414,7 @@
         <v>0.1021271452743534</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I34" s="3">
         <v>5.9584239787285478</v>
@@ -4467,7 +4467,7 @@
         <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C35" t="s">
         <v>151</v>
@@ -4485,7 +4485,7 @@
         <v>9.6445143229665992E-2</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I35" s="3">
         <v>6.3868543160639648</v>
@@ -4538,7 +4538,7 @@
         <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C36" t="s">
         <v>151</v>
@@ -4556,7 +4556,7 @@
         <v>0.10176125244618396</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I36" s="3">
         <v>5.5694716242661446</v>
@@ -4609,7 +4609,7 @@
         <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C37" t="s">
         <v>151</v>
@@ -4627,7 +4627,7 @@
         <v>8.2375010194927017E-2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I37" s="3">
         <v>5.1198923415708348</v>
@@ -4680,7 +4680,7 @@
         <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C38" t="s">
         <v>151</v>
@@ -4698,7 +4698,7 @@
         <v>0.10010257189530068</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I38" s="3">
         <v>4.5834441363066523</v>
@@ -4751,7 +4751,7 @@
         <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C39" t="s">
         <v>151</v>
@@ -4769,7 +4769,7 @@
         <v>9.3443509151285811E-2</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I39" s="3">
         <v>4.091049501892039</v>
@@ -4822,7 +4822,7 @@
         <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C40" t="s">
         <v>151</v>
@@ -4840,7 +4840,7 @@
         <v>8.6578343333467575E-2</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I40" s="3">
         <v>4.1315990818668711</v>
@@ -4893,7 +4893,7 @@
         <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C41" t="s">
         <v>151</v>
@@ -4911,7 +4911,7 @@
         <v>8.4213120815018694E-2</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I41" s="3">
         <v>4.1613605553958024</v>
@@ -4964,7 +4964,7 @@
         <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C42" t="s">
         <v>151</v>
@@ -4982,7 +4982,7 @@
         <v>0.1077462908577749</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I42" s="3">
         <v>4.155383500514894</v>
@@ -5035,7 +5035,7 @@
         <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C43" t="s">
         <v>151</v>
@@ -5053,7 +5053,7 @@
         <v>9.3054104027654974E-2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I43" s="3">
         <v>3.8869684058204039</v>
@@ -5106,7 +5106,7 @@
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C44" t="s">
         <v>164</v>
@@ -5124,7 +5124,7 @@
         <v>8.3731592648715866E-2</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I44" s="3">
         <v>4.0389322764891018</v>
@@ -5177,7 +5177,7 @@
         <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C45" t="s">
         <v>164</v>
@@ -5195,7 +5195,7 @@
         <v>7.3763378652010422E-2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I45" s="3">
         <v>4.1509979751229382</v>
@@ -5248,7 +5248,7 @@
         <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C46" t="s">
         <v>164</v>
@@ -5266,7 +5266,7 @@
         <v>7.9287007161407116E-2</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I46" s="3">
         <v>4.0135358463838831</v>
@@ -5319,7 +5319,7 @@
         <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C47" t="s">
         <v>164</v>
@@ -5337,7 +5337,7 @@
         <v>6.7875142253292164E-2</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I47" s="3">
         <v>4.5094293610794995</v>
@@ -5390,7 +5390,7 @@
         <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C48" t="s">
         <v>164</v>
@@ -5408,7 +5408,7 @@
         <v>0.10406342913776018</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I48" s="3">
         <v>5.3260654112983161</v>
@@ -5461,7 +5461,7 @@
         <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C49" t="s">
         <v>164</v>
@@ -5479,7 +5479,7 @@
         <v>8.2444805580879132E-2</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I49" s="3">
         <v>4.9169606405327198</v>
@@ -5532,7 +5532,7 @@
         <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C50" t="s">
         <v>164</v>
@@ -5550,7 +5550,7 @@
         <v>6.2929061784897031E-2</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I50" s="3">
         <v>3.7920889179470412</v>
@@ -5603,7 +5603,7 @@
         <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C51" t="s">
         <v>164</v>
@@ -5621,7 +5621,7 @@
         <v>6.1840302957054227E-2</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I51" s="3">
         <v>4.5403271291596168</v>
@@ -5674,7 +5674,7 @@
         <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C52" t="s">
         <v>164</v>
@@ -5692,7 +5692,7 @@
         <v>6.5293036712671559E-2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I52" s="3">
         <v>4.230363216952731</v>
@@ -5745,7 +5745,7 @@
         <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C53" t="s">
         <v>164</v>
@@ -5763,7 +5763,7 @@
         <v>9.434713375796179E-2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I53" s="3">
         <v>4.7551751592356695</v>
@@ -5816,7 +5816,7 @@
         <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C54" t="s">
         <v>175</v>
@@ -5834,7 +5834,7 @@
         <v>7.9957356076759079E-2</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I54" s="3">
         <v>2.6988075495538184</v>
@@ -5887,7 +5887,7 @@
         <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C55" t="s">
         <v>175</v>
@@ -5905,7 +5905,7 @@
         <v>7.7201251472918633E-2</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I55" s="3">
         <v>2.9377107797326403</v>
@@ -5958,7 +5958,7 @@
         <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C56" t="s">
         <v>175</v>
@@ -5976,7 +5976,7 @@
         <v>6.351292159439334E-2</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I56" s="3">
         <v>2.8252299605781865</v>
@@ -6029,7 +6029,7 @@
         <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C57" t="s">
         <v>175</v>
@@ -6047,7 +6047,7 @@
         <v>6.3300881209835694E-2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I57" s="3">
         <v>2.4666179243467887</v>
@@ -6100,7 +6100,7 @@
         <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C58" t="s">
         <v>175</v>
@@ -6118,7 +6118,7 @@
         <v>7.0941552043510811E-2</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I58" s="3">
         <v>2.5066015055373825</v>
@@ -6171,7 +6171,7 @@
         <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C59" t="s">
         <v>175</v>
@@ -6189,7 +6189,7 @@
         <v>6.8036337153589629E-2</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I59" s="3">
         <v>2.6141285599294721</v>
@@ -6242,7 +6242,7 @@
         <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C60" t="s">
         <v>175</v>
@@ -6260,7 +6260,7 @@
         <v>6.894660555490266E-2</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I60" s="3">
         <v>2.5796215771536026</v>
@@ -6313,7 +6313,7 @@
         <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C61" t="s">
         <v>175</v>
@@ -6331,7 +6331,7 @@
         <v>7.9516292091142388E-2</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I61" s="3">
         <v>2.9823469943230418</v>
@@ -6384,7 +6384,7 @@
         <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C62" t="s">
         <v>175</v>
@@ -6402,7 +6402,7 @@
         <v>6.9293533970232496E-2</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I62" s="3">
         <v>3.1018081922178036</v>
@@ -6455,7 +6455,7 @@
         <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C63" t="s">
         <v>175</v>
@@ -6473,7 +6473,7 @@
         <v>5.9339626336610399E-2</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I63" s="3">
         <v>2.6066350710900479</v>
@@ -6526,7 +6526,7 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C64" t="s">
         <v>175</v>
@@ -6544,7 +6544,7 @@
         <v>7.5713111867590097E-2</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I64" s="3">
         <v>2.1677035645811324</v>
@@ -6597,7 +6597,7 @@
         <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C65" t="s">
         <v>175</v>
@@ -6615,7 +6615,7 @@
         <v>6.9026406613692914E-2</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I65" s="3">
         <v>2.9737539128340962</v>
@@ -6668,7 +6668,7 @@
         <v>187</v>
       </c>
       <c r="B66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C66" t="s">
         <v>188</v>
@@ -6686,7 +6686,7 @@
         <v>9.0439777976167368E-2</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I66" s="3">
         <v>3.3167721150487131</v>
@@ -6739,7 +6739,7 @@
         <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C67" t="s">
         <v>188</v>
@@ -6757,7 +6757,7 @@
         <v>8.553265266807937E-2</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I67" s="3">
         <v>4.2573685224426896</v>
@@ -6810,7 +6810,7 @@
         <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C68" t="s">
         <v>188</v>
@@ -6828,7 +6828,7 @@
         <v>9.7461732222437522E-2</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I68" s="3">
         <v>3.6213912032551834</v>
@@ -6881,7 +6881,7 @@
         <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C69" t="s">
         <v>188</v>
@@ -6899,7 +6899,7 @@
         <v>7.7147866744593813E-2</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I69" s="3">
         <v>4.0444184687317364</v>
@@ -6952,7 +6952,7 @@
         <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C70" t="s">
         <v>188</v>
@@ -6970,7 +6970,7 @@
         <v>8.9851795016758884E-2</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I70" s="3">
         <v>2.972176230666721</v>
@@ -7023,7 +7023,7 @@
         <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C71" t="s">
         <v>188</v>
@@ -7041,7 +7041,7 @@
         <v>8.8976767177459226E-2</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I71" s="3">
         <v>3.4004778381941017</v>
@@ -7094,7 +7094,7 @@
         <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C72" t="s">
         <v>188</v>
@@ -7112,7 +7112,7 @@
         <v>8.19210101086017E-2</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I72" s="3">
         <v>3.9851940926684453</v>
@@ -7165,7 +7165,7 @@
         <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C73" t="s">
         <v>188</v>
@@ -7183,7 +7183,7 @@
         <v>9.935923432557385E-2</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I73" s="3">
         <v>4.0575066915402713</v>
@@ -7236,7 +7236,7 @@
         <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C74" t="s">
         <v>188</v>
@@ -7254,7 +7254,7 @@
         <v>8.7524752475247533E-2</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I74" s="3">
         <v>4.6316831683168314</v>
@@ -7307,7 +7307,7 @@
         <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C75" t="s">
         <v>188</v>
@@ -7325,7 +7325,7 @@
         <v>8.8362587160375081E-2</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I75" s="3">
         <v>3.0776628997355133</v>
@@ -7378,7 +7378,7 @@
         <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C76" t="s">
         <v>199</v>
@@ -7396,7 +7396,7 @@
         <v>0.15541090317331166</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I76" s="3">
         <v>2.9882017900732305</v>
@@ -7446,10 +7446,10 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B77" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C77" t="s">
         <v>199</v>
@@ -7467,7 +7467,7 @@
         <v>6.5127294256956778E-2</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I77" s="3">
         <v>2.3169528320505233</v>
@@ -7517,10 +7517,10 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C78" t="s">
         <v>199</v>
@@ -7538,7 +7538,7 @@
         <v>7.0399806350102873E-2</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I78" s="3">
         <v>3.2517045225319725</v>
@@ -7588,10 +7588,10 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B79" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C79" t="s">
         <v>199</v>
@@ -7609,7 +7609,7 @@
         <v>0.11605911330049262</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I79" s="3">
         <v>2.2325123152709363</v>
@@ -7659,10 +7659,10 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C80" t="s">
         <v>199</v>
@@ -7680,7 +7680,7 @@
         <v>7.3757282756910875E-2</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I80" s="3">
         <v>2.5060947894715095</v>
@@ -7730,10 +7730,10 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C81" t="s">
         <v>199</v>
@@ -7751,7 +7751,7 @@
         <v>6.3935232474558318E-2</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I81" s="3">
         <v>2.4855294518215865</v>
@@ -7801,10 +7801,10 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C82" t="s">
         <v>199</v>
@@ -7822,7 +7822,7 @@
         <v>7.1052028420811375E-2</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I82" s="3">
         <v>2.2461608984643591</v>
@@ -7872,10 +7872,10 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C83" t="s">
         <v>199</v>
@@ -7893,7 +7893,7 @@
         <v>6.6026871401151627E-2</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I83" s="3">
         <v>2.6602687140115164</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B84" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C84" t="s">
         <v>199</v>
@@ -7964,7 +7964,7 @@
         <v>9.2331263607773578E-2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I84" s="3">
         <v>2.3486009192807034</v>
@@ -8014,10 +8014,10 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B85" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C85" t="s">
         <v>199</v>
@@ -8035,7 +8035,7 @@
         <v>5.3675992192582962E-2</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I85" s="3">
         <v>2.3666232921275214</v>
@@ -8088,7 +8088,7 @@
         <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C86" t="s">
         <v>201</v>
@@ -8106,7 +8106,7 @@
         <v>6.458683994206757E-2</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I86" s="3">
         <v>5.4683524484283881</v>
@@ -8159,7 +8159,7 @@
         <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C87" t="s">
         <v>201</v>
@@ -8177,7 +8177,7 @@
         <v>7.9709247098666003E-2</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I87" s="3">
         <v>7.0747119316069877</v>
@@ -8230,7 +8230,7 @@
         <v>203</v>
       </c>
       <c r="B88" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C88" t="s">
         <v>201</v>
@@ -8248,7 +8248,7 @@
         <v>7.0004503213657018E-2</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I88" s="3">
         <v>6.0261186392107104</v>
@@ -8301,7 +8301,7 @@
         <v>204</v>
       </c>
       <c r="B89" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C89" t="s">
         <v>201</v>
@@ -8319,7 +8319,7 @@
         <v>6.1451424112368327E-2</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I89" s="3">
         <v>4.3679282091299267</v>
@@ -8372,7 +8372,7 @@
         <v>205</v>
       </c>
       <c r="B90" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C90" t="s">
         <v>206</v>
@@ -8390,7 +8390,7 @@
         <v>0.10060728744939272</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I90" s="3">
         <v>5.1842105263157894</v>
@@ -8443,7 +8443,7 @@
         <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C91" t="s">
         <v>206</v>
@@ -8461,7 +8461,7 @@
         <v>0.48519837857757037</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I91" s="3">
         <v>7.445850223150309</v>
@@ -8514,7 +8514,7 @@
         <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C92" t="s">
         <v>206</v>
@@ -8532,7 +8532,7 @@
         <v>0.11428571428571428</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I92" s="3">
         <v>6.1272015655577299</v>
@@ -8585,7 +8585,7 @@
         <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C93" t="s">
         <v>206</v>
@@ -8603,7 +8603,7 @@
         <v>0.12848093701446156</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I93" s="3">
         <v>6.8782120234253616</v>
@@ -8656,7 +8656,7 @@
         <v>210</v>
       </c>
       <c r="B94" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C94" t="s">
         <v>211</v>
@@ -8674,7 +8674,7 @@
         <v>9.3990434601788325E-2</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I94" s="3">
         <v>4.1734248284466631</v>
@@ -8727,7 +8727,7 @@
         <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C95" t="s">
         <v>211</v>
@@ -8745,7 +8745,7 @@
         <v>0.12325406560360859</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I95" s="3">
         <v>5.3139714319629645</v>
@@ -8798,7 +8798,7 @@
         <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C96" t="s">
         <v>211</v>
@@ -8816,7 +8816,7 @@
         <v>0.11119616453809276</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I96" s="3">
         <v>6.1621207848193071</v>
@@ -8869,7 +8869,7 @@
         <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C97" t="s">
         <v>211</v>
@@ -8887,7 +8887,7 @@
         <v>0.12405348799742227</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I97" s="3">
         <v>7.7875785403576616</v>
@@ -8940,7 +8940,7 @@
         <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C98" t="s">
         <v>211</v>
@@ -8958,7 +8958,7 @@
         <v>0.10720233139050792</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I98" s="3">
         <v>6.536219816819318</v>
@@ -9011,7 +9011,7 @@
         <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C99" t="s">
         <v>211</v>
@@ -9029,7 +9029,7 @@
         <v>0.11464272716244085</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I99" s="3">
         <v>5.161955598689798</v>
@@ -9082,7 +9082,7 @@
         <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C100" t="s">
         <v>211</v>
@@ -9100,7 +9100,7 @@
         <v>0.12490078950666277</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I100" s="3">
         <v>7.8574710723087851</v>
@@ -9153,7 +9153,7 @@
         <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C101" t="s">
         <v>211</v>
@@ -9171,7 +9171,7 @@
         <v>0.13014372908052768</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I101" s="3">
         <v>6.5800354400472543</v>
@@ -9224,7 +9224,7 @@
         <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C102" t="s">
         <v>211</v>
@@ -9242,7 +9242,7 @@
         <v>0.13420339817778873</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I102" s="3">
         <v>6.324386440121482</v>
@@ -9295,7 +9295,7 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C103" t="s">
         <v>211</v>
@@ -9313,7 +9313,7 @@
         <v>0.1192493946731235</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I103" s="3">
         <v>7.0016142050040369</v>
@@ -9366,7 +9366,7 @@
         <v>221</v>
       </c>
       <c r="B104" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C104" t="s">
         <v>222</v>
@@ -9384,7 +9384,7 @@
         <v>8.7806557753376452E-2</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I104" s="3">
         <v>8.7347438497149632</v>
@@ -9437,7 +9437,7 @@
         <v>223</v>
       </c>
       <c r="B105" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C105" t="s">
         <v>222</v>
@@ -9455,7 +9455,7 @@
         <v>0.10254866546257276</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I105" s="3">
         <v>6.7288781858318281</v>
@@ -9508,7 +9508,7 @@
         <v>224</v>
       </c>
       <c r="B106" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C106" t="s">
         <v>222</v>
@@ -9526,7 +9526,7 @@
         <v>9.8996206133417655E-2</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I106" s="3">
         <v>6.8961429023079361</v>
@@ -9579,7 +9579,7 @@
         <v>225</v>
       </c>
       <c r="B107" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C107" t="s">
         <v>222</v>
@@ -9597,7 +9597,7 @@
         <v>0.10105288636088589</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I107" s="3">
         <v>6.9446125297510992</v>
@@ -9650,7 +9650,7 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C108" t="s">
         <v>222</v>
@@ -9721,7 +9721,7 @@
         <v>227</v>
       </c>
       <c r="B109" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C109" t="s">
         <v>222</v>
@@ -9792,7 +9792,7 @@
         <v>228</v>
       </c>
       <c r="B110" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C110" t="s">
         <v>222</v>
@@ -9863,7 +9863,7 @@
         <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C111" t="s">
         <v>222</v>
@@ -9934,7 +9934,7 @@
         <v>230</v>
       </c>
       <c r="B112" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C112" t="s">
         <v>231</v>
@@ -10005,7 +10005,7 @@
         <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C113" t="s">
         <v>231</v>
@@ -10076,7 +10076,7 @@
         <v>233</v>
       </c>
       <c r="B114" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C114" t="s">
         <v>231</v>
@@ -10094,7 +10094,7 @@
         <v>0.1082642354698</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I114" s="3">
         <v>5.5664714897630381</v>
@@ -10147,7 +10147,7 @@
         <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C115" t="s">
         <v>231</v>
@@ -10165,7 +10165,7 @@
         <v>0.11292446430709069</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I115" s="3">
         <v>7.9725469853557325</v>
@@ -10218,7 +10218,7 @@
         <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C116" t="s">
         <v>231</v>
@@ -10236,7 +10236,7 @@
         <v>0.13519503546099293</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I116" s="3">
         <v>7.8457446808510642</v>
@@ -10289,7 +10289,7 @@
         <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C117" t="s">
         <v>231</v>
@@ -10307,7 +10307,7 @@
         <v>0.16428275290215588</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I117" s="3">
         <v>13.391376451077944</v>
@@ -10360,7 +10360,7 @@
         <v>238</v>
       </c>
       <c r="B118" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C118" t="s">
         <v>231</v>
@@ -10378,7 +10378,7 @@
         <v>0.10021287705346026</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I118" s="3">
         <v>6.6072217536249349</v>
@@ -10431,7 +10431,7 @@
         <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C119" t="s">
         <v>231</v>
@@ -10449,7 +10449,7 @@
         <v>0.11020519622376529</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I119" s="3">
         <v>11.461340407271592</v>
@@ -10502,7 +10502,7 @@
         <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C120" t="s">
         <v>231</v>
@@ -10520,7 +10520,7 @@
         <v>0.13952952029520296</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I120" s="3">
         <v>9.0682656826568273</v>
@@ -10573,7 +10573,7 @@
         <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C121" t="s">
         <v>231</v>
@@ -10591,7 +10591,7 @@
         <v>0.12234064612449715</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I121" s="3">
         <v>6.7162941152075648</v>
@@ -10662,7 +10662,7 @@
         <v>8.1060726177263356E-2</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I122" s="3">
         <v>8.3934517203107664</v>
@@ -10733,7 +10733,7 @@
         <v>9.8246183825917502E-2</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I123" s="3">
         <v>5.9536375446573553</v>
@@ -10804,7 +10804,7 @@
         <v>8.4722813261634888E-2</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I124" s="3">
         <v>5.5340632132771095</v>
@@ -10875,7 +10875,7 @@
         <v>5.8235952022831577E-2</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I125" s="3">
         <v>4.6550194762621002</v>
@@ -10946,7 +10946,7 @@
         <v>7.1571552668353675E-2</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I126" s="3">
         <v>5.1875212448540235</v>
@@ -11017,7 +11017,7 @@
         <v>0.35686412237571219</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I127" s="3">
         <v>4.6593303675954107</v>
@@ -11088,7 +11088,7 @@
         <v>7.4804939019771255E-2</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I128" s="3">
         <v>4.8708431179456104</v>
@@ -11159,7 +11159,7 @@
         <v>9.2175013846032119E-2</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I129" s="3">
         <v>5.0755597752986787</v>
@@ -11230,7 +11230,7 @@
         <v>7.2836166924265852E-2</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I130" s="3">
         <v>4.4474497681607428</v>
@@ -11301,7 +11301,7 @@
         <v>8.1225296442687736E-2</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I131" s="3">
         <v>3.9960474308300391</v>
@@ -11372,7 +11372,7 @@
         <v>7.1966827478968154E-2</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I132" s="3">
         <v>7.7768031577688292</v>
@@ -11443,7 +11443,7 @@
         <v>5.5505958157046925E-2</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I133" s="3">
         <v>9.8513371889919661</v>
@@ -11514,7 +11514,7 @@
         <v>5.5656073001887969E-2</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I134" s="3">
         <v>10.30915670232851</v>
@@ -11585,7 +11585,7 @@
         <v>5.2378201424995191E-2</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I135" s="3">
         <v>8.9870980165607559</v>
@@ -11656,7 +11656,7 @@
         <v>6.1575863855565738E-2</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I136" s="3">
         <v>8.271890319237972</v>
@@ -11727,7 +11727,7 @@
         <v>6.3965021659042151E-2</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I137" s="3">
         <v>9.9105299380591898</v>
@@ -11798,7 +11798,7 @@
         <v>6.4056224899598405E-2</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I138" s="3">
         <v>10.787148594377509</v>
@@ -11869,7 +11869,7 @@
         <v>5.1073507304475199E-2</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I139" s="3">
         <v>11.016459160467178</v>
@@ -11940,7 +11940,7 @@
         <v>5.3169734151329251E-2</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I140" s="3">
         <v>9.0593047034764815</v>
@@ -12011,7 +12011,7 @@
         <v>7.3961727146762551E-2</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I141" s="3">
         <v>9.7760551248923342</v>
@@ -12082,7 +12082,7 @@
         <v>0.12179639768309133</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I142" s="3">
         <v>8.6388161548837559</v>
@@ -12153,7 +12153,7 @@
         <v>0.10966163880962089</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I143" s="3">
         <v>5.2955564614757451</v>
@@ -12224,7 +12224,7 @@
         <v>9.6317729596892471E-2</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I144" s="3">
         <v>7.0137540132387333</v>
@@ -12295,7 +12295,7 @@
         <v>0.16021388654364171</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I145" s="3">
         <v>5.8034816869698078</v>
@@ -12366,7 +12366,7 @@
         <v>8.9229928147453938E-2</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I146" s="3">
         <v>4.8246641674476729</v>
@@ -12422,7 +12422,7 @@
         <v>249</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D147" s="3">
         <v>0.61244584482079556</v>
@@ -12437,7 +12437,7 @@
         <v>0.11253024250267261</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I147" s="3">
         <v>9.2021605806560522</v>
@@ -12493,7 +12493,7 @@
         <v>249</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D148" s="3">
         <v>0.78970459198596088</v>
@@ -12508,7 +12508,7 @@
         <v>0.15472360339280494</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I148" s="3">
         <v>11.193331383445454</v>
@@ -12564,7 +12564,7 @@
         <v>249</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D149" s="3">
         <v>0.94139797599435182</v>
@@ -12579,7 +12579,7 @@
         <v>0.1762179336314427</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I149" s="3">
         <v>10.796658037185221</v>
@@ -12635,7 +12635,7 @@
         <v>249</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D150" s="3">
         <v>0.73084511673791519</v>
@@ -12650,7 +12650,7 @@
         <v>0.3169187767181848</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I150" s="3">
         <v>15.048503781650773</v>
@@ -12706,7 +12706,7 @@
         <v>249</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D151" s="3">
         <v>0.62142689325710709</v>
@@ -12721,7 +12721,7 @@
         <v>0.14566528310752605</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I151" s="3">
         <v>13.458375753778682</v>
@@ -12777,7 +12777,7 @@
         <v>249</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D152" s="3">
         <v>0.93864998422878776</v>
@@ -12792,7 +12792,7 @@
         <v>0.1968772999684576</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I152" s="3">
         <v>6.5897381978761436</v>
@@ -12848,7 +12848,7 @@
         <v>249</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D153" s="3">
         <v>0.81210191082802552</v>
@@ -12863,7 +12863,7 @@
         <v>0.23644084153638295</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I153" s="3">
         <v>17.569002123142251</v>
@@ -12919,7 +12919,7 @@
         <v>249</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D154" s="3">
         <v>0.74604743083003966</v>
@@ -12934,7 +12934,7 @@
         <v>0.26365432985986348</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I154" s="3">
         <v>16.749011857707512</v>
@@ -12990,7 +12990,7 @@
         <v>249</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D155" s="3">
         <v>0.96523571240452999</v>
@@ -13005,7 +13005,7 @@
         <v>0.35455622860152758</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I155" s="3">
         <v>8.38820121148275</v>
@@ -13061,7 +13061,7 @@
         <v>249</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="D156" s="3">
         <v>0.87266484315893622</v>
@@ -13076,7 +13076,7 @@
         <v>0.20659954606296918</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I156" s="3">
         <v>20.226386544840832</v>
@@ -13129,10 +13129,10 @@
         <v>41</v>
       </c>
       <c r="B157" t="s">
+        <v>250</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="D157" s="3">
         <v>5.1083215225754204</v>
@@ -13147,7 +13147,7 @@
         <v>0.10083012755618546</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I157" s="3">
         <v>5.3452115812917596</v>
@@ -13200,10 +13200,10 @@
         <v>40</v>
       </c>
       <c r="B158" t="s">
+        <v>250</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="D158" s="3">
         <v>6.5798058103388728</v>
@@ -13218,7 +13218,7 @@
         <v>0.17442529838431131</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I158" s="3">
         <v>7.6985071190083261</v>
@@ -13271,10 +13271,10 @@
         <v>39</v>
       </c>
       <c r="B159" t="s">
+        <v>250</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="D159" s="3">
         <v>6.6161108101833941</v>
@@ -13289,7 +13289,7 @@
         <v>0.14547705641105005</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I159" s="3">
         <v>8.1385901106554197</v>
@@ -13342,10 +13342,10 @@
         <v>38</v>
       </c>
       <c r="B160" t="s">
+        <v>250</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="D160" s="3">
         <v>5.6048658715378226</v>
@@ -13360,7 +13360,7 @@
         <v>0.10916511471252528</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I160" s="3">
         <v>5.7911003685065587</v>
@@ -13413,10 +13413,10 @@
         <v>37</v>
       </c>
       <c r="B161" t="s">
+        <v>250</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="D161" s="3">
         <v>6.4342606923105983</v>
@@ -13431,7 +13431,7 @@
         <v>0.1098486278358688</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I161" s="3">
         <v>8.1914612509909031</v>
@@ -13484,10 +13484,10 @@
         <v>36</v>
       </c>
       <c r="B162" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="D162" s="3">
         <v>5.4624080115317506</v>
@@ -13502,7 +13502,7 @@
         <v>0.12954252332903424</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I162" s="3">
         <v>8.278962142477809</v>
@@ -13555,10 +13555,10 @@
         <v>34</v>
       </c>
       <c r="B163" t="s">
+        <v>250</v>
+      </c>
+      <c r="C163" s="11" t="s">
         <v>251</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="D163" s="3">
         <v>10.37735849056604</v>
@@ -13573,7 +13573,7 @@
         <v>0.11762344439983943</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I163" s="3">
         <v>7.6093938177438778</v>
@@ -13629,7 +13629,7 @@
         <v>249</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D164" s="3">
         <v>2.3172767146683224</v>
@@ -13644,7 +13644,7 @@
         <v>0.10907114854636495</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I164" s="3">
         <v>13.919186430151768</v>
@@ -13700,7 +13700,7 @@
         <v>249</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D165" s="3">
         <v>1.2869658364895369</v>
@@ -13715,7 +13715,7 @@
         <v>8.1296147519032871E-2</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I165" s="3">
         <v>10.7234400703929</v>
@@ -13771,7 +13771,7 @@
         <v>249</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D166" s="3">
         <v>1.2583879525593009</v>
@@ -13786,7 +13786,7 @@
         <v>8.7000624219725348E-2</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I166" s="3">
         <v>10.266463795255932</v>
@@ -13839,10 +13839,10 @@
         <v>28</v>
       </c>
       <c r="B167" t="s">
+        <v>252</v>
+      </c>
+      <c r="C167" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D167" s="3">
         <v>4.3837159616206351</v>
@@ -13857,7 +13857,7 @@
         <v>5.7102901759701667E-2</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I167" s="3">
         <v>8.0157712776288719</v>
@@ -13910,10 +13910,10 @@
         <v>27</v>
       </c>
       <c r="B168" t="s">
+        <v>252</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D168" s="3">
         <v>4.1087000608395865</v>
@@ -13928,7 +13928,7 @@
         <v>4.3398904887446771E-2</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I168" s="3">
         <v>5.4228351247211517</v>
@@ -13981,10 +13981,10 @@
         <v>25</v>
       </c>
       <c r="B169" t="s">
+        <v>252</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D169" s="3">
         <v>3.8070678127984721</v>
@@ -13999,7 +13999,7 @@
         <v>2.2349570200573071E-2</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I169" s="3">
         <v>4.2578796561604593</v>
@@ -14052,10 +14052,10 @@
         <v>23</v>
       </c>
       <c r="B170" t="s">
+        <v>252</v>
+      </c>
+      <c r="C170" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D170" s="3">
         <v>3.7290901672786623</v>
@@ -14070,7 +14070,7 @@
         <v>3.3863729090167279E-2</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I170" s="3">
         <v>5.3753569971440234</v>
@@ -14123,10 +14123,10 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
+        <v>255</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="D171" s="3">
         <v>1.4839683737931582</v>
@@ -14141,7 +14141,7 @@
         <v>3.8142159005125353E-2</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I171" s="3">
         <v>5.7769478326512766</v>
@@ -14194,10 +14194,10 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C172" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D172" s="3">
         <v>2.9963110743055035</v>
@@ -14212,7 +14212,7 @@
         <v>5.4204622449747795E-2</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I172" s="3">
         <v>3.6268162312730556</v>
@@ -14265,10 +14265,10 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
+        <v>523</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="D173" s="3">
         <v>3.2026321937543805</v>
@@ -14283,7 +14283,7 @@
         <v>5.9380110583287904E-2</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I173" s="3">
         <v>6.4870337201152566</v>
@@ -14336,10 +14336,10 @@
         <v>18</v>
       </c>
       <c r="B174" t="s">
+        <v>258</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="D174" s="3">
         <v>2.4365561264206761</v>
@@ -14354,7 +14354,7 @@
         <v>0.10878872800871868</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I174" s="3">
         <v>5.6437801650319175</v>
@@ -14407,10 +14407,10 @@
         <v>17</v>
       </c>
       <c r="B175" t="s">
+        <v>258</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="D175" s="3">
         <v>2.8794229825157664</v>
@@ -14425,7 +14425,7 @@
         <v>0.11045655375552282</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I175" s="3">
         <v>5.6927608474000229</v>
@@ -14475,13 +14475,13 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B176" t="s">
+        <v>507</v>
+      </c>
+      <c r="C176" t="s">
         <v>508</v>
-      </c>
-      <c r="C176" t="s">
-        <v>509</v>
       </c>
       <c r="D176" s="3">
         <v>5.2863976450386367</v>
@@ -14546,13 +14546,13 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B177" t="s">
+        <v>507</v>
+      </c>
+      <c r="C177" t="s">
         <v>508</v>
-      </c>
-      <c r="C177" t="s">
-        <v>509</v>
       </c>
       <c r="D177" s="3">
         <v>4.1492910758965804</v>
@@ -14617,13 +14617,13 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B178" t="s">
+        <v>507</v>
+      </c>
+      <c r="C178" t="s">
         <v>508</v>
-      </c>
-      <c r="C178" t="s">
-        <v>509</v>
       </c>
       <c r="D178" s="3">
         <v>3.3604687745792039</v>
@@ -14688,13 +14688,13 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B179" t="s">
+        <v>507</v>
+      </c>
+      <c r="C179" t="s">
         <v>508</v>
-      </c>
-      <c r="C179" t="s">
-        <v>509</v>
       </c>
       <c r="D179" s="3">
         <v>3.8061717279201122</v>
@@ -14759,13 +14759,13 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B180" t="s">
+        <v>507</v>
+      </c>
+      <c r="C180" t="s">
         <v>508</v>
-      </c>
-      <c r="C180" t="s">
-        <v>509</v>
       </c>
       <c r="D180" s="3">
         <v>4.1216243572614282</v>
@@ -14830,13 +14830,13 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B181" t="s">
+        <v>507</v>
+      </c>
+      <c r="C181" t="s">
         <v>508</v>
-      </c>
-      <c r="C181" t="s">
-        <v>509</v>
       </c>
       <c r="D181" s="3">
         <v>4.1554702495201532</v>
@@ -14901,13 +14901,13 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B182" t="s">
+        <v>507</v>
+      </c>
+      <c r="C182" t="s">
         <v>508</v>
-      </c>
-      <c r="C182" t="s">
-        <v>509</v>
       </c>
       <c r="D182" s="3">
         <v>5.4286183940166026</v>
@@ -14972,13 +14972,13 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B183" t="s">
+        <v>507</v>
+      </c>
+      <c r="C183" t="s">
         <v>508</v>
-      </c>
-      <c r="C183" t="s">
-        <v>509</v>
       </c>
       <c r="D183" s="3">
         <v>3.9438558438308164</v>
@@ -15043,13 +15043,13 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B184" t="s">
+        <v>507</v>
+      </c>
+      <c r="C184" t="s">
         <v>508</v>
-      </c>
-      <c r="C184" t="s">
-        <v>509</v>
       </c>
       <c r="D184" s="3">
         <v>3.9094321539813115</v>
@@ -15114,13 +15114,13 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B185" t="s">
+        <v>507</v>
+      </c>
+      <c r="C185" t="s">
         <v>508</v>
-      </c>
-      <c r="C185" t="s">
-        <v>509</v>
       </c>
       <c r="D185" s="3">
         <v>3.5229625086253167</v>
@@ -15185,13 +15185,13 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B186" t="s">
+        <v>509</v>
+      </c>
+      <c r="C186" t="s">
         <v>510</v>
-      </c>
-      <c r="C186" t="s">
-        <v>511</v>
       </c>
       <c r="D186" s="3">
         <v>25.90663580246914</v>
@@ -15256,13 +15256,13 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B187" t="s">
+        <v>509</v>
+      </c>
+      <c r="C187" t="s">
         <v>510</v>
-      </c>
-      <c r="C187" t="s">
-        <v>511</v>
       </c>
       <c r="D187" s="3">
         <v>10.025946647206682</v>
@@ -15327,13 +15327,13 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B188" t="s">
+        <v>509</v>
+      </c>
+      <c r="C188" t="s">
         <v>510</v>
-      </c>
-      <c r="C188" t="s">
-        <v>511</v>
       </c>
       <c r="D188" s="3">
         <v>4.8263172793076956</v>
@@ -15398,13 +15398,13 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B189" t="s">
+        <v>509</v>
+      </c>
+      <c r="C189" t="s">
         <v>510</v>
-      </c>
-      <c r="C189" t="s">
-        <v>511</v>
       </c>
       <c r="D189" s="3">
         <v>10.853903147897991</v>
@@ -15469,13 +15469,13 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B190" t="s">
+        <v>509</v>
+      </c>
+      <c r="C190" t="s">
         <v>510</v>
-      </c>
-      <c r="C190" t="s">
-        <v>511</v>
       </c>
       <c r="D190" s="3">
         <v>10.298976870098331</v>
@@ -15540,13 +15540,13 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B191" t="s">
+        <v>509</v>
+      </c>
+      <c r="C191" t="s">
         <v>510</v>
-      </c>
-      <c r="C191" t="s">
-        <v>511</v>
       </c>
       <c r="D191" s="3">
         <v>15.798260599471966</v>
@@ -15611,13 +15611,13 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B192" t="s">
+        <v>509</v>
+      </c>
+      <c r="C192" t="s">
         <v>510</v>
-      </c>
-      <c r="C192" t="s">
-        <v>511</v>
       </c>
       <c r="D192" s="3">
         <v>14.593969368219531</v>
@@ -15682,13 +15682,13 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B193" t="s">
+        <v>509</v>
+      </c>
+      <c r="C193" t="s">
         <v>510</v>
-      </c>
-      <c r="C193" t="s">
-        <v>511</v>
       </c>
       <c r="D193" s="3">
         <v>8.0936346302081237</v>
@@ -15753,13 +15753,13 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B194" t="s">
+        <v>509</v>
+      </c>
+      <c r="C194" t="s">
         <v>510</v>
-      </c>
-      <c r="C194" t="s">
-        <v>511</v>
       </c>
       <c r="D194" s="3">
         <v>9.6042546535272955</v>
@@ -15824,13 +15824,13 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B195" t="s">
+        <v>509</v>
+      </c>
+      <c r="C195" t="s">
         <v>510</v>
-      </c>
-      <c r="C195" t="s">
-        <v>511</v>
       </c>
       <c r="D195" s="3">
         <v>13.36550060313631</v>
@@ -15895,13 +15895,13 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B196" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C196" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D196" s="3">
         <v>29.898016094335109</v>
@@ -15966,13 +15966,13 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B197" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C197" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D197" s="3">
         <v>29.365733113673805</v>
@@ -16037,13 +16037,13 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B198" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C198" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D198" s="3">
         <v>22.254255361162674</v>
@@ -16108,13 +16108,13 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B199" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C199" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D199" s="3">
         <v>11.087492053401144</v>
@@ -16179,13 +16179,13 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B200" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C200" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D200" s="3">
         <v>12.679895770695531</v>
@@ -16250,13 +16250,13 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B201" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D201" s="3">
         <v>17.806002750586522</v>
@@ -16321,13 +16321,13 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B202" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C202" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D202" s="3">
         <v>9.4603434178250208</v>
@@ -16392,13 +16392,13 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B203" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C203" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D203" s="3">
         <v>7.5607687959299055</v>
@@ -16463,13 +16463,13 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B204" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C204" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D204" s="3">
         <v>6.7023537431332452</v>
@@ -16534,13 +16534,13 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B205" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C205" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D205" s="3">
         <v>10.707595035516354</v>
@@ -16605,13 +16605,13 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B206" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C206" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D206" s="3">
         <v>9.9598174228533551</v>
@@ -16676,13 +16676,13 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B207" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C207" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D207" s="3">
         <v>9.5361440981908032</v>
@@ -16747,13 +16747,13 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B208" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C208" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D208" s="3">
         <v>9.0531561461794041</v>
@@ -16818,13 +16818,13 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B209" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C209" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D209" s="3">
         <v>11.384573346865485</v>
@@ -16889,13 +16889,13 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B210" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C210" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D210" s="3">
         <v>14.565675858501454</v>
@@ -16960,13 +16960,13 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B211" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C211" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D211" s="3">
         <v>8.4451679504486634</v>
@@ -17031,13 +17031,13 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B212" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C212" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D212" s="3">
         <v>7.8865547893331218</v>
@@ -17102,13 +17102,13 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B213" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C213" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D213" s="3">
         <v>6.5280368268582087</v>
@@ -17173,13 +17173,13 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B214" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C214" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D214" s="3">
         <v>11.921080379592832</v>
@@ -17244,13 +17244,13 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B215" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C215" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D215" s="3">
         <v>10.886394033964251</v>
@@ -17315,13 +17315,13 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B216" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C216" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D216" s="3">
         <v>8.9682667525773194</v>
@@ -17386,13 +17386,13 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B217" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C217" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D217" s="3">
         <v>10.225590976360946</v>
@@ -17457,13 +17457,13 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B218" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C218" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D218" s="3">
         <v>15.65119607442241</v>
@@ -17528,13 +17528,13 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B219" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C219" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D219" s="3">
         <v>7.9783827061649326</v>
@@ -17599,13 +17599,13 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B220" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C220" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D220" s="3">
         <v>9.5988262095061589</v>
@@ -17670,13 +17670,13 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B221" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C221" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D221" s="3">
         <v>11.210727065392634</v>
@@ -17741,13 +17741,13 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B222" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C222" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D222" s="3">
         <v>8.5695113286492468</v>
@@ -17812,13 +17812,13 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B223" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C223" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D223" s="3">
         <v>11.471141044717678</v>
@@ -17883,13 +17883,13 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B224" t="s">
+        <v>514</v>
+      </c>
+      <c r="C224" t="s">
         <v>515</v>
-      </c>
-      <c r="C224" t="s">
-        <v>516</v>
       </c>
       <c r="D224" s="3">
         <v>1.9773851017265138</v>
@@ -17954,13 +17954,13 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B225" t="s">
+        <v>514</v>
+      </c>
+      <c r="C225" t="s">
         <v>515</v>
-      </c>
-      <c r="C225" t="s">
-        <v>516</v>
       </c>
       <c r="D225" s="3">
         <v>1.9641562625855822</v>
@@ -18025,13 +18025,13 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B226" t="s">
+        <v>514</v>
+      </c>
+      <c r="C226" t="s">
         <v>515</v>
-      </c>
-      <c r="C226" t="s">
-        <v>516</v>
       </c>
       <c r="D226" s="3">
         <v>1.6479178597725601</v>
@@ -18096,13 +18096,13 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B227" t="s">
+        <v>514</v>
+      </c>
+      <c r="C227" t="s">
         <v>515</v>
-      </c>
-      <c r="C227" t="s">
-        <v>516</v>
       </c>
       <c r="D227" s="3">
         <v>1.7913832199546487</v>
@@ -18167,13 +18167,13 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B228" t="s">
+        <v>514</v>
+      </c>
+      <c r="C228" t="s">
         <v>515</v>
-      </c>
-      <c r="C228" t="s">
-        <v>516</v>
       </c>
       <c r="D228" s="3">
         <v>1.7162303259986851</v>
@@ -18238,13 +18238,13 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B229" t="s">
+        <v>514</v>
+      </c>
+      <c r="C229" t="s">
         <v>515</v>
-      </c>
-      <c r="C229" t="s">
-        <v>516</v>
       </c>
       <c r="D229" s="3">
         <v>1.4909819639278559</v>
@@ -18309,13 +18309,13 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B230" t="s">
+        <v>514</v>
+      </c>
+      <c r="C230" t="s">
         <v>515</v>
-      </c>
-      <c r="C230" t="s">
-        <v>516</v>
       </c>
       <c r="D230" s="3">
         <v>1.8130101409844175</v>
@@ -18380,13 +18380,13 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B231" t="s">
+        <v>514</v>
+      </c>
+      <c r="C231" t="s">
         <v>515</v>
-      </c>
-      <c r="C231" t="s">
-        <v>516</v>
       </c>
       <c r="D231" s="3">
         <v>2.198825673213201</v>
@@ -18451,13 +18451,13 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B232" t="s">
+        <v>514</v>
+      </c>
+      <c r="C232" t="s">
         <v>515</v>
-      </c>
-      <c r="C232" t="s">
-        <v>516</v>
       </c>
       <c r="D232" s="3">
         <v>2.0092121982210926</v>
@@ -18522,13 +18522,13 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B233" t="s">
+        <v>514</v>
+      </c>
+      <c r="C233" t="s">
         <v>515</v>
-      </c>
-      <c r="C233" t="s">
-        <v>516</v>
       </c>
       <c r="D233" s="3">
         <v>1.9080328181644723</v>
@@ -18593,13 +18593,13 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B234" t="s">
+        <v>516</v>
+      </c>
+      <c r="C234" t="s">
         <v>517</v>
-      </c>
-      <c r="C234" t="s">
-        <v>518</v>
       </c>
       <c r="D234" s="3">
         <v>2.7456588355464762</v>
@@ -18664,13 +18664,13 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B235" t="s">
+        <v>516</v>
+      </c>
+      <c r="C235" t="s">
         <v>517</v>
-      </c>
-      <c r="C235" t="s">
-        <v>518</v>
       </c>
       <c r="D235" s="3">
         <v>3.3459446677701585</v>
@@ -18735,13 +18735,13 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B236" t="s">
+        <v>516</v>
+      </c>
+      <c r="C236" t="s">
         <v>517</v>
-      </c>
-      <c r="C236" t="s">
-        <v>518</v>
       </c>
       <c r="D236" s="3">
         <v>5.6091527520098952</v>
@@ -18806,13 +18806,13 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B237" t="s">
+        <v>516</v>
+      </c>
+      <c r="C237" t="s">
         <v>517</v>
-      </c>
-      <c r="C237" t="s">
-        <v>518</v>
       </c>
       <c r="D237" s="3">
         <v>7.6113327028249529</v>
@@ -18877,13 +18877,13 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B238" t="s">
+        <v>516</v>
+      </c>
+      <c r="C238" t="s">
         <v>517</v>
-      </c>
-      <c r="C238" t="s">
-        <v>518</v>
       </c>
       <c r="D238" s="3">
         <v>4.1014516259832945</v>
@@ -18948,13 +18948,13 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B239" t="s">
+        <v>516</v>
+      </c>
+      <c r="C239" t="s">
         <v>517</v>
-      </c>
-      <c r="C239" t="s">
-        <v>518</v>
       </c>
       <c r="D239" s="3">
         <v>5.6408741878322504</v>
@@ -19019,13 +19019,13 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B240" t="s">
+        <v>516</v>
+      </c>
+      <c r="C240" t="s">
         <v>517</v>
-      </c>
-      <c r="C240" t="s">
-        <v>518</v>
       </c>
       <c r="D240" s="3">
         <v>3.2567126125408334</v>
@@ -19090,13 +19090,13 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B241" t="s">
+        <v>516</v>
+      </c>
+      <c r="C241" t="s">
         <v>517</v>
-      </c>
-      <c r="C241" t="s">
-        <v>518</v>
       </c>
       <c r="D241" s="3">
         <v>9.3854590910923843</v>
@@ -19161,13 +19161,13 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B242" t="s">
+        <v>516</v>
+      </c>
+      <c r="C242" t="s">
         <v>517</v>
-      </c>
-      <c r="C242" t="s">
-        <v>518</v>
       </c>
       <c r="D242" s="3">
         <v>3.1934526197544733</v>
@@ -19232,13 +19232,13 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B243" t="s">
+        <v>516</v>
+      </c>
+      <c r="C243" t="s">
         <v>517</v>
-      </c>
-      <c r="C243" t="s">
-        <v>518</v>
       </c>
       <c r="D243" s="3">
         <v>3.6878458617764678</v>
@@ -19303,13 +19303,13 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B244" t="s">
+        <v>252</v>
+      </c>
+      <c r="C244" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D244" s="3">
         <v>2.1529562982005146</v>
@@ -19374,13 +19374,13 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B245" t="s">
+        <v>252</v>
+      </c>
+      <c r="C245" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D245" s="3">
         <v>2.0567810457516345</v>
@@ -19445,13 +19445,13 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B246" t="s">
+        <v>252</v>
+      </c>
+      <c r="C246" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D246" s="3">
         <v>2.4031828159297586</v>
@@ -19516,13 +19516,13 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B247" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C247" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D247" s="3">
         <v>1.7014073016520499</v>
@@ -19587,13 +19587,13 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C248" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D248" s="3">
         <v>2.5126955108673572</v>
@@ -19658,13 +19658,13 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C249" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D249" s="3">
         <v>1.4280801132915235</v>
@@ -19729,13 +19729,13 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C250" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D250" s="3">
         <v>1.871361025360478</v>
@@ -19800,13 +19800,13 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D251" s="3">
         <v>1.3341766052282857</v>
@@ -19871,13 +19871,13 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D252" s="3">
         <v>1.8319159775835718</v>
@@ -19942,13 +19942,13 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D253" s="3">
         <v>1.6148035633646702</v>
@@ -20013,13 +20013,13 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D254" s="3">
         <v>1.8180697645753729</v>
@@ -20084,13 +20084,13 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C255" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D255" s="3">
         <v>1.3745835507566333</v>
@@ -20155,13 +20155,13 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C256" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D256" s="3">
         <v>1.8664383561643838</v>
@@ -20226,13 +20226,13 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B257" t="s">
+        <v>519</v>
+      </c>
+      <c r="C257" t="s">
         <v>520</v>
-      </c>
-      <c r="C257" t="s">
-        <v>521</v>
       </c>
       <c r="D257" s="3">
         <v>2.2060022834774098</v>
@@ -20297,13 +20297,13 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B258" t="s">
+        <v>519</v>
+      </c>
+      <c r="C258" t="s">
         <v>520</v>
-      </c>
-      <c r="C258" t="s">
-        <v>521</v>
       </c>
       <c r="D258" s="3">
         <v>1.7799701542032831</v>
@@ -20368,13 +20368,13 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B259" t="s">
+        <v>519</v>
+      </c>
+      <c r="C259" t="s">
         <v>520</v>
-      </c>
-      <c r="C259" t="s">
-        <v>521</v>
       </c>
       <c r="D259" s="3">
         <v>3.0791608620830946</v>
@@ -20439,13 +20439,13 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B260" t="s">
+        <v>519</v>
+      </c>
+      <c r="C260" t="s">
         <v>520</v>
-      </c>
-      <c r="C260" t="s">
-        <v>521</v>
       </c>
       <c r="D260" s="3">
         <v>3.0444684166367013</v>
@@ -20510,13 +20510,13 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B261" t="s">
+        <v>519</v>
+      </c>
+      <c r="C261" t="s">
         <v>520</v>
-      </c>
-      <c r="C261" t="s">
-        <v>521</v>
       </c>
       <c r="D261" s="3">
         <v>4.3810007025212707</v>
@@ -20581,13 +20581,13 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B262" t="s">
+        <v>252</v>
+      </c>
+      <c r="C262" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D262" s="3">
         <v>4.9665551839464888</v>
@@ -20641,7 +20641,7 @@
         <v>27.59615384615385</v>
       </c>
       <c r="U262" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V262" s="3">
         <v>26.017976588628766</v>
@@ -20652,13 +20652,13 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B263" t="s">
+        <v>252</v>
+      </c>
+      <c r="C263" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D263" s="3">
         <v>4.4497114591920859</v>
@@ -20723,13 +20723,13 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B264" t="s">
+        <v>252</v>
+      </c>
+      <c r="C264" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C264" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D264" s="3">
         <v>5.5748853392377047</v>
@@ -20794,13 +20794,13 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B265" t="s">
+        <v>252</v>
+      </c>
+      <c r="C265" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="D265" s="3">
         <v>5.3864575688516361</v>
@@ -20865,13 +20865,13 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B266" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D266" s="3">
         <v>7.6959155755325392</v>
@@ -20936,13 +20936,13 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B267" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D267" s="3">
         <v>7.4005347380182789</v>
@@ -21019,7 +21019,7 @@
       <selection activeCell="A5" sqref="A5:U68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -25274,7 +25274,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" style="5"/>
     <col min="2" max="20" width="11.453125" style="1"/>

--- a/data/res_compo_fish.xlsx
+++ b/data/res_compo_fish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgilbe01\Desktop\PhD_2020-2023_09\01.Analyses\Ker_Arctgazella-prey-poop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA212B-770A-4248-ACA7-A397C6A2F353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86368752-FBF3-4824-B84C-D3DEE24E11E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
@@ -1580,9 +1580,6 @@
     <t>Muraenolepididae</t>
   </si>
   <si>
-    <t>Muraenolepsis sp</t>
-  </si>
-  <si>
     <t>Stomias sp</t>
   </si>
   <si>
@@ -1635,6 +1632,9 @@
   </si>
   <si>
     <t>Notolepis coatsi</t>
+  </si>
+  <si>
+    <t>Muraenolepis sp</t>
   </si>
 </sst>
 </file>
@@ -2036,9 +2036,9 @@
   <dimension ref="A1:W267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="585" topLeftCell="A127" activePane="bottomLeft"/>
+      <pane ySplit="590" topLeftCell="A229" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147:C156"/>
+      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2124,7 +2124,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -2195,7 +2195,7 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
@@ -2266,7 +2266,7 @@
         <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
@@ -2337,7 +2337,7 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C5" t="s">
         <v>116</v>
@@ -2408,7 +2408,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -2479,7 +2479,7 @@
         <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C7" t="s">
         <v>116</v>
@@ -2550,7 +2550,7 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
         <v>116</v>
@@ -2621,7 +2621,7 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -2692,7 +2692,7 @@
         <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -2763,7 +2763,7 @@
         <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
@@ -2834,7 +2834,7 @@
         <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
@@ -2905,7 +2905,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
@@ -2976,7 +2976,7 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -3047,7 +3047,7 @@
         <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
@@ -3118,7 +3118,7 @@
         <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" t="s">
         <v>128</v>
@@ -3189,7 +3189,7 @@
         <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
@@ -3260,7 +3260,7 @@
         <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
         <v>128</v>
@@ -3331,7 +3331,7 @@
         <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
@@ -3402,7 +3402,7 @@
         <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C20" t="s">
         <v>128</v>
@@ -3473,7 +3473,7 @@
         <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C21" t="s">
         <v>128</v>
@@ -3544,7 +3544,7 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C22" t="s">
         <v>140</v>
@@ -3615,7 +3615,7 @@
         <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C23" t="s">
         <v>140</v>
@@ -3686,7 +3686,7 @@
         <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C24" t="s">
         <v>140</v>
@@ -3757,7 +3757,7 @@
         <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C25" t="s">
         <v>140</v>
@@ -3828,7 +3828,7 @@
         <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C26" t="s">
         <v>140</v>
@@ -3899,7 +3899,7 @@
         <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C27" t="s">
         <v>140</v>
@@ -3970,7 +3970,7 @@
         <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C28" t="s">
         <v>140</v>
@@ -4041,7 +4041,7 @@
         <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C29" t="s">
         <v>140</v>
@@ -4112,7 +4112,7 @@
         <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C30" t="s">
         <v>140</v>
@@ -4183,7 +4183,7 @@
         <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C31" t="s">
         <v>140</v>
@@ -4254,7 +4254,7 @@
         <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C32" t="s">
         <v>151</v>
@@ -4325,7 +4325,7 @@
         <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C33" t="s">
         <v>151</v>
@@ -4396,7 +4396,7 @@
         <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C34" t="s">
         <v>151</v>
@@ -4467,7 +4467,7 @@
         <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C35" t="s">
         <v>151</v>
@@ -4538,7 +4538,7 @@
         <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C36" t="s">
         <v>151</v>
@@ -4609,7 +4609,7 @@
         <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C37" t="s">
         <v>151</v>
@@ -4680,7 +4680,7 @@
         <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C38" t="s">
         <v>151</v>
@@ -4751,7 +4751,7 @@
         <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C39" t="s">
         <v>151</v>
@@ -4822,7 +4822,7 @@
         <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C40" t="s">
         <v>151</v>
@@ -4893,7 +4893,7 @@
         <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C41" t="s">
         <v>151</v>
@@ -4964,7 +4964,7 @@
         <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C42" t="s">
         <v>151</v>
@@ -5035,7 +5035,7 @@
         <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C43" t="s">
         <v>151</v>
@@ -5106,7 +5106,7 @@
         <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C44" t="s">
         <v>164</v>
@@ -5177,7 +5177,7 @@
         <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C45" t="s">
         <v>164</v>
@@ -5248,7 +5248,7 @@
         <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C46" t="s">
         <v>164</v>
@@ -5319,7 +5319,7 @@
         <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C47" t="s">
         <v>164</v>
@@ -5390,7 +5390,7 @@
         <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C48" t="s">
         <v>164</v>
@@ -5461,7 +5461,7 @@
         <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C49" t="s">
         <v>164</v>
@@ -5532,7 +5532,7 @@
         <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C50" t="s">
         <v>164</v>
@@ -5603,7 +5603,7 @@
         <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C51" t="s">
         <v>164</v>
@@ -5674,7 +5674,7 @@
         <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C52" t="s">
         <v>164</v>
@@ -5745,7 +5745,7 @@
         <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C53" t="s">
         <v>164</v>
@@ -5816,7 +5816,7 @@
         <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C54" t="s">
         <v>175</v>
@@ -5887,7 +5887,7 @@
         <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C55" t="s">
         <v>175</v>
@@ -5958,7 +5958,7 @@
         <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C56" t="s">
         <v>175</v>
@@ -6029,7 +6029,7 @@
         <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C57" t="s">
         <v>175</v>
@@ -6100,7 +6100,7 @@
         <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C58" t="s">
         <v>175</v>
@@ -6171,7 +6171,7 @@
         <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C59" t="s">
         <v>175</v>
@@ -6242,7 +6242,7 @@
         <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C60" t="s">
         <v>175</v>
@@ -6313,7 +6313,7 @@
         <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C61" t="s">
         <v>175</v>
@@ -6384,7 +6384,7 @@
         <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C62" t="s">
         <v>175</v>
@@ -6455,7 +6455,7 @@
         <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C63" t="s">
         <v>175</v>
@@ -6526,7 +6526,7 @@
         <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C64" t="s">
         <v>175</v>
@@ -6597,7 +6597,7 @@
         <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C65" t="s">
         <v>175</v>
@@ -6668,7 +6668,7 @@
         <v>187</v>
       </c>
       <c r="B66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C66" t="s">
         <v>188</v>
@@ -6739,7 +6739,7 @@
         <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C67" t="s">
         <v>188</v>
@@ -6810,7 +6810,7 @@
         <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C68" t="s">
         <v>188</v>
@@ -6881,7 +6881,7 @@
         <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C69" t="s">
         <v>188</v>
@@ -6952,7 +6952,7 @@
         <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C70" t="s">
         <v>188</v>
@@ -7023,7 +7023,7 @@
         <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C71" t="s">
         <v>188</v>
@@ -7094,7 +7094,7 @@
         <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C72" t="s">
         <v>188</v>
@@ -7165,7 +7165,7 @@
         <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C73" t="s">
         <v>188</v>
@@ -7236,7 +7236,7 @@
         <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C74" t="s">
         <v>188</v>
@@ -7307,7 +7307,7 @@
         <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C75" t="s">
         <v>188</v>
@@ -7378,7 +7378,7 @@
         <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C76" t="s">
         <v>199</v>
@@ -7446,10 +7446,10 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C77" t="s">
         <v>199</v>
@@ -7517,10 +7517,10 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C78" t="s">
         <v>199</v>
@@ -7588,10 +7588,10 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B79" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C79" t="s">
         <v>199</v>
@@ -7659,10 +7659,10 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C80" t="s">
         <v>199</v>
@@ -7730,10 +7730,10 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C81" t="s">
         <v>199</v>
@@ -7801,10 +7801,10 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C82" t="s">
         <v>199</v>
@@ -7872,10 +7872,10 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C83" t="s">
         <v>199</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C84" t="s">
         <v>199</v>
@@ -8014,10 +8014,10 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C85" t="s">
         <v>199</v>
@@ -8088,7 +8088,7 @@
         <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C86" t="s">
         <v>201</v>
@@ -8159,7 +8159,7 @@
         <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C87" t="s">
         <v>201</v>
@@ -8230,7 +8230,7 @@
         <v>203</v>
       </c>
       <c r="B88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C88" t="s">
         <v>201</v>
@@ -8301,7 +8301,7 @@
         <v>204</v>
       </c>
       <c r="B89" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C89" t="s">
         <v>201</v>
@@ -8372,7 +8372,7 @@
         <v>205</v>
       </c>
       <c r="B90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C90" t="s">
         <v>206</v>
@@ -8443,7 +8443,7 @@
         <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C91" t="s">
         <v>206</v>
@@ -8514,7 +8514,7 @@
         <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C92" t="s">
         <v>206</v>
@@ -8585,7 +8585,7 @@
         <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C93" t="s">
         <v>206</v>
@@ -8656,7 +8656,7 @@
         <v>210</v>
       </c>
       <c r="B94" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C94" t="s">
         <v>211</v>
@@ -8727,7 +8727,7 @@
         <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C95" t="s">
         <v>211</v>
@@ -8798,7 +8798,7 @@
         <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C96" t="s">
         <v>211</v>
@@ -8869,7 +8869,7 @@
         <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C97" t="s">
         <v>211</v>
@@ -8940,7 +8940,7 @@
         <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C98" t="s">
         <v>211</v>
@@ -9011,7 +9011,7 @@
         <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C99" t="s">
         <v>211</v>
@@ -9082,7 +9082,7 @@
         <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C100" t="s">
         <v>211</v>
@@ -9153,7 +9153,7 @@
         <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C101" t="s">
         <v>211</v>
@@ -9224,7 +9224,7 @@
         <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C102" t="s">
         <v>211</v>
@@ -9295,7 +9295,7 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C103" t="s">
         <v>211</v>
@@ -9366,7 +9366,7 @@
         <v>221</v>
       </c>
       <c r="B104" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C104" t="s">
         <v>222</v>
@@ -9437,7 +9437,7 @@
         <v>223</v>
       </c>
       <c r="B105" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C105" t="s">
         <v>222</v>
@@ -9508,7 +9508,7 @@
         <v>224</v>
       </c>
       <c r="B106" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C106" t="s">
         <v>222</v>
@@ -9579,7 +9579,7 @@
         <v>225</v>
       </c>
       <c r="B107" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C107" t="s">
         <v>222</v>
@@ -9650,7 +9650,7 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C108" t="s">
         <v>222</v>
@@ -9721,7 +9721,7 @@
         <v>227</v>
       </c>
       <c r="B109" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C109" t="s">
         <v>222</v>
@@ -9792,7 +9792,7 @@
         <v>228</v>
       </c>
       <c r="B110" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C110" t="s">
         <v>222</v>
@@ -9863,7 +9863,7 @@
         <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C111" t="s">
         <v>222</v>
@@ -9934,7 +9934,7 @@
         <v>230</v>
       </c>
       <c r="B112" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C112" t="s">
         <v>231</v>
@@ -10005,7 +10005,7 @@
         <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C113" t="s">
         <v>231</v>
@@ -10076,7 +10076,7 @@
         <v>233</v>
       </c>
       <c r="B114" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C114" t="s">
         <v>231</v>
@@ -10147,7 +10147,7 @@
         <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C115" t="s">
         <v>231</v>
@@ -10218,7 +10218,7 @@
         <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C116" t="s">
         <v>231</v>
@@ -10289,7 +10289,7 @@
         <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C117" t="s">
         <v>231</v>
@@ -10360,7 +10360,7 @@
         <v>238</v>
       </c>
       <c r="B118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C118" t="s">
         <v>231</v>
@@ -10431,7 +10431,7 @@
         <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C119" t="s">
         <v>231</v>
@@ -10502,7 +10502,7 @@
         <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C120" t="s">
         <v>231</v>
@@ -10573,7 +10573,7 @@
         <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C121" t="s">
         <v>231</v>
@@ -12422,7 +12422,7 @@
         <v>249</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D147" s="3">
         <v>0.61244584482079556</v>
@@ -12493,7 +12493,7 @@
         <v>249</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D148" s="3">
         <v>0.78970459198596088</v>
@@ -12564,7 +12564,7 @@
         <v>249</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D149" s="3">
         <v>0.94139797599435182</v>
@@ -12635,7 +12635,7 @@
         <v>249</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D150" s="3">
         <v>0.73084511673791519</v>
@@ -12706,7 +12706,7 @@
         <v>249</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D151" s="3">
         <v>0.62142689325710709</v>
@@ -12777,7 +12777,7 @@
         <v>249</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D152" s="3">
         <v>0.93864998422878776</v>
@@ -12848,7 +12848,7 @@
         <v>249</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D153" s="3">
         <v>0.81210191082802552</v>
@@ -12919,7 +12919,7 @@
         <v>249</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D154" s="3">
         <v>0.74604743083003966</v>
@@ -12990,7 +12990,7 @@
         <v>249</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D155" s="3">
         <v>0.96523571240452999</v>
@@ -13061,7 +13061,7 @@
         <v>249</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D156" s="3">
         <v>0.87266484315893622</v>
@@ -14194,7 +14194,7 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C172" t="s">
         <v>257</v>
@@ -14265,10 +14265,10 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
+        <v>522</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>523</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>524</v>
       </c>
       <c r="D173" s="3">
         <v>3.2026321937543805</v>
@@ -18599,7 +18599,7 @@
         <v>516</v>
       </c>
       <c r="C234" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D234" s="3">
         <v>2.7456588355464762</v>
@@ -18670,7 +18670,7 @@
         <v>516</v>
       </c>
       <c r="C235" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D235" s="3">
         <v>3.3459446677701585</v>
@@ -18741,7 +18741,7 @@
         <v>516</v>
       </c>
       <c r="C236" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D236" s="3">
         <v>5.6091527520098952</v>
@@ -18812,7 +18812,7 @@
         <v>516</v>
       </c>
       <c r="C237" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D237" s="3">
         <v>7.6113327028249529</v>
@@ -18883,7 +18883,7 @@
         <v>516</v>
       </c>
       <c r="C238" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D238" s="3">
         <v>4.1014516259832945</v>
@@ -18954,7 +18954,7 @@
         <v>516</v>
       </c>
       <c r="C239" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D239" s="3">
         <v>5.6408741878322504</v>
@@ -19025,7 +19025,7 @@
         <v>516</v>
       </c>
       <c r="C240" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D240" s="3">
         <v>3.2567126125408334</v>
@@ -19096,7 +19096,7 @@
         <v>516</v>
       </c>
       <c r="C241" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D241" s="3">
         <v>9.3854590910923843</v>
@@ -19167,7 +19167,7 @@
         <v>516</v>
       </c>
       <c r="C242" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D242" s="3">
         <v>3.1934526197544733</v>
@@ -19238,7 +19238,7 @@
         <v>516</v>
       </c>
       <c r="C243" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D243" s="3">
         <v>3.6878458617764678</v>
@@ -19522,7 +19522,7 @@
         <v>255</v>
       </c>
       <c r="C247" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D247" s="3">
         <v>1.7014073016520499</v>
@@ -19593,7 +19593,7 @@
         <v>255</v>
       </c>
       <c r="C248" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D248" s="3">
         <v>2.5126955108673572</v>
@@ -19664,7 +19664,7 @@
         <v>255</v>
       </c>
       <c r="C249" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D249" s="3">
         <v>1.4280801132915235</v>
@@ -19735,7 +19735,7 @@
         <v>255</v>
       </c>
       <c r="C250" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D250" s="3">
         <v>1.871361025360478</v>
@@ -19806,7 +19806,7 @@
         <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D251" s="3">
         <v>1.3341766052282857</v>
@@ -19877,7 +19877,7 @@
         <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D252" s="3">
         <v>1.8319159775835718</v>
@@ -19948,7 +19948,7 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D253" s="3">
         <v>1.6148035633646702</v>
@@ -20019,7 +20019,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D254" s="3">
         <v>1.8180697645753729</v>
@@ -20090,7 +20090,7 @@
         <v>255</v>
       </c>
       <c r="C255" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D255" s="3">
         <v>1.3745835507566333</v>
@@ -20161,7 +20161,7 @@
         <v>255</v>
       </c>
       <c r="C256" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D256" s="3">
         <v>1.8664383561643838</v>
@@ -20229,10 +20229,10 @@
         <v>495</v>
       </c>
       <c r="B257" t="s">
+        <v>518</v>
+      </c>
+      <c r="C257" t="s">
         <v>519</v>
-      </c>
-      <c r="C257" t="s">
-        <v>520</v>
       </c>
       <c r="D257" s="3">
         <v>2.2060022834774098</v>
@@ -20300,10 +20300,10 @@
         <v>496</v>
       </c>
       <c r="B258" t="s">
+        <v>518</v>
+      </c>
+      <c r="C258" t="s">
         <v>519</v>
-      </c>
-      <c r="C258" t="s">
-        <v>520</v>
       </c>
       <c r="D258" s="3">
         <v>1.7799701542032831</v>
@@ -20371,10 +20371,10 @@
         <v>497</v>
       </c>
       <c r="B259" t="s">
+        <v>518</v>
+      </c>
+      <c r="C259" t="s">
         <v>519</v>
-      </c>
-      <c r="C259" t="s">
-        <v>520</v>
       </c>
       <c r="D259" s="3">
         <v>3.0791608620830946</v>
@@ -20442,10 +20442,10 @@
         <v>498</v>
       </c>
       <c r="B260" t="s">
+        <v>518</v>
+      </c>
+      <c r="C260" t="s">
         <v>519</v>
-      </c>
-      <c r="C260" t="s">
-        <v>520</v>
       </c>
       <c r="D260" s="3">
         <v>3.0444684166367013</v>
@@ -20513,10 +20513,10 @@
         <v>499</v>
       </c>
       <c r="B261" t="s">
+        <v>518</v>
+      </c>
+      <c r="C261" t="s">
         <v>519</v>
-      </c>
-      <c r="C261" t="s">
-        <v>520</v>
       </c>
       <c r="D261" s="3">
         <v>4.3810007025212707</v>
@@ -20871,7 +20871,7 @@
         <v>250</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D266" s="3">
         <v>7.6959155755325392</v>
@@ -20942,7 +20942,7 @@
         <v>250</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D267" s="3">
         <v>7.4005347380182789</v>
